--- a/eShop-fncTest-VTT.xlsx
+++ b/eShop-fncTest-VTT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình chính" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="182">
   <si>
     <t>UI</t>
   </si>
@@ -597,6 +597,30 @@
   </si>
   <si>
     <t>Bản ghi ấy không hiển thị lên trang chủ nữa</t>
+  </si>
+  <si>
+    <t>Hiển thị chữ</t>
+  </si>
+  <si>
+    <t>Chữ căn trái</t>
+  </si>
+  <si>
+    <t>Hiển thị số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số căn phải, giá tiền có chấm </t>
+  </si>
+  <si>
+    <t>Nhập tối đa 20 ký tự</t>
+  </si>
+  <si>
+    <t>Hiển thị giá tiền</t>
+  </si>
+  <si>
+    <t>Giá tiền có chấm, căn phải</t>
+  </si>
+  <si>
+    <t>Nhập tối đa được 20 ký tự</t>
   </si>
 </sst>
 </file>
@@ -939,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,73 +1029,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>104</v>
@@ -1080,40 +1106,43 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1121,55 +1150,55 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1177,46 +1206,49 @@
         <v>119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>119</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1224,133 +1256,144 @@
         <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>25</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>4</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1364,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,6 +1453,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
@@ -1460,7 +1514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1595,7 +1649,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1663,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1635,6 +1689,17 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/eShop-fncTest-VTT.xlsx
+++ b/eShop-fncTest-VTT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình chính" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="184">
   <si>
     <t>UI</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Thêm mới thành công, đóng form, chuyển về màn hình chính</t>
-  </si>
-  <si>
-    <t>Chỉ nhập trường hợp lệ</t>
   </si>
   <si>
     <t>Tên hàng hóa : Áo</t>
@@ -621,6 +618,15 @@
   </si>
   <si>
     <t>Nhập tối đa được 20 ký tự</t>
+  </si>
+  <si>
+    <t>Chỉ nhập trường tên, sku tự sinh</t>
+  </si>
+  <si>
+    <t>Tên hàng hóa : Áo , sku để tự sinh</t>
+  </si>
+  <si>
+    <t>Chỉ nhập trường tên, xóa sku tự động</t>
   </si>
 </sst>
 </file>
@@ -965,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -982,22 +988,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,21 +1037,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,29 +1070,29 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1100,38 +1106,38 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1150,13 +1156,13 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1184,18 +1190,18 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -1217,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1253,7 +1259,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1264,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
@@ -1309,60 +1315,60 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,22 +1430,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,13 +1461,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,7 +1483,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -1491,10 +1494,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
@@ -1502,141 +1505,149 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>125</v>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
+      <c r="E15" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1665,22 +1676,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,13 +1704,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,102 +1718,102 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,13 +1834,13 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1856,19 +1867,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,65 +1895,65 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,21 +1969,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/eShop-fncTest-VTT.xlsx
+++ b/eShop-fncTest-VTT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình chính" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="200">
   <si>
     <t>UI</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>Border đỏ và thông báo bắt buộc nhập tên hàng hóa</t>
   </si>
   <si>
     <t>Nhập trùng sku</t>
@@ -267,9 +264,6 @@
     </r>
   </si>
   <si>
-    <t>Sửa sku thành công</t>
-  </si>
-  <si>
     <t>sửa mã sku không trùng</t>
   </si>
   <si>
@@ -446,27 +440,15 @@
     </r>
   </si>
   <si>
-    <t>Trạng thái : Đang kinh doanh. Tên hàng hóa: Áo mưa. Nhóm hàng hóa : Áo. Mã SKU tự động sinh. Giá mua 10000, giá bán 20000. Đơn vị tính: chiếc. Hiển thị trên mh: có. Thuộc tính: màu sắc xanh. Mã SKU AM1-XA1. Barcode:999 Giá mua: 550000, giá bán 605000 . Mô tả: "áo mưa dùng một lần".ảnh hàng hóa: không nhập</t>
-  </si>
-  <si>
     <t>Tên hàng hóa : Áo, SKU: A2</t>
   </si>
   <si>
-    <t>Thông báo thêm mới thất bại</t>
-  </si>
-  <si>
     <t>Khi hết thuộc tính chi tiết thì form detail đóng lại</t>
   </si>
   <si>
-    <t>Bấm nút lưu/ ctrl S</t>
-  </si>
-  <si>
     <t>Thông báo thêm mới thành công/ thất bại và đóng form</t>
   </si>
   <si>
-    <t>Bấm nút hủy/ ctrl c</t>
-  </si>
-  <si>
     <t>Form clear, không có trường nào còn hiển thị thừa</t>
   </si>
   <si>
@@ -518,18 +500,9 @@
     <t>A9999</t>
   </si>
   <si>
-    <t>Báo lỗi border đỏ, focus vào ô sku</t>
-  </si>
-  <si>
     <t>Thực tế</t>
   </si>
   <si>
-    <t>Đóng form, thông báo cập nhật thất bại</t>
-  </si>
-  <si>
-    <t>Border đỏ và thông báo nhập sai SKU</t>
-  </si>
-  <si>
     <t>Trạng thái : Đang kinh doanh. Tên hàng hóa tự động sinh. Nhóm hàng hóa : Áo. Mã SKU tự động sinh. Giá mua 10000, giá bán 20000. Đơn vị tính: chiếc. Hiển thị trên mh: có. Thuộc tính: xanh. Mô tả: "áo màu xanh" .ảnh hàng hóa: không</t>
   </si>
   <si>
@@ -548,21 +521,12 @@
     <t>Hiển thị thông báo cần chọn hàng để xóa</t>
   </si>
   <si>
-    <t>Không click vào checkbox nào, bấm xóa/ ctrl x</t>
-  </si>
-  <si>
-    <t>Click vào ô checkbox-&gt; bấm xóa/ ctrl x -&gt; hủy không xóa nữa/ esc</t>
-  </si>
-  <si>
     <t>đóng popup</t>
   </si>
   <si>
     <t>Xóa thành công 1 bản ghi</t>
   </si>
   <si>
-    <t>Click vào 1 ô checkbox -&gt; bấm xóa -&gt; bấm đồng ý xóa/enter</t>
-  </si>
-  <si>
     <t>hàng đầu tiên</t>
   </si>
   <si>
@@ -617,9 +581,6 @@
     <t>Giá tiền có chấm, căn phải</t>
   </si>
   <si>
-    <t>Nhập tối đa được 20 ký tự</t>
-  </si>
-  <si>
     <t>Chỉ nhập trường tên, sku tự sinh</t>
   </si>
   <si>
@@ -627,6 +588,93 @@
   </si>
   <si>
     <t>Chỉ nhập trường tên, xóa sku tự động</t>
+  </si>
+  <si>
+    <t>Tên hàng hóa: Áo sku rỗng</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Border đỏ và thông báo bắt buộc nhập tên hàng hóa và focus vào ô tên hàng hóa</t>
+  </si>
+  <si>
+    <t>Border đỏ và thông báo nhập SKU đã tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập các trường hàng hóa cha, không nhập hàng hóa con</t>
+  </si>
+  <si>
+    <t>Nhập hàng hóa cha, nhập hàng hóa con rồi xóa hàng hóa con đó, bấm lưu</t>
+  </si>
+  <si>
+    <t>Tên Áo. SKU A11. Nhập màu sắc đen, xóa màu đen rồi bấm lưu</t>
+  </si>
+  <si>
+    <t>Lưu thành công hàng hóa không có màu sắc đen</t>
+  </si>
+  <si>
+    <t>Trạng thái : Đang kinh doanh. Tên hàng hóa: Áo . Nhóm hàng hóa : Áo. Mã SKU tự động sinh. Giá mua 10000, giá bán 20000. Đơn vị tính: chiếc. Hiển thị trên mh: có. Thuộc tính: màu sắc xanh. Mã SKU tự sinh. Barcode:tự sinh Giá mua: 550000, giá bán 605000 . Mô tả: "áo mưa dùng một lần".ảnh hàng hóa: không nhập</t>
+  </si>
+  <si>
+    <t>Nhập các trường cha hợp lệ, nhập các trường con hợp lệ nhưng khong dùng của sinh tự động mà sửa tay</t>
+  </si>
+  <si>
+    <t>Trạng thái : Đang kinh doanh. Tên hàng hóa: Áo . Nhóm hàng hóa : Áo. Mã SKU A12. Giá mua 10000, giá bán 20000. Đơn vị tính: chiếc. Hiển thị trên mh: có. Thuộc tính: màu sắc xanh. Mã SKU A12-Xanh1. Barcode:1999 Giá mua: 550000, giá bán 605000 . Mô tả: "áo</t>
+  </si>
+  <si>
+    <t>Lưu thành công, đóng form</t>
+  </si>
+  <si>
+    <t>Nhập các trường cha hợp lệ, nhập các trường con không hợp lệ</t>
+  </si>
+  <si>
+    <t>SKU của trường con bỏ trống</t>
+  </si>
+  <si>
+    <t>Thông báo vui lòng nhập SKU hàng hóa</t>
+  </si>
+  <si>
+    <t>Mã vạch của trường con bỏ trống</t>
+  </si>
+  <si>
+    <t>Thông báo vui lòng nhập mã vạch</t>
+  </si>
+  <si>
+    <t>Sku của trường con trùng</t>
+  </si>
+  <si>
+    <t>Thông báo Mã SKU tồn tại</t>
+  </si>
+  <si>
+    <t>Mã vạch của trường con trùng</t>
+  </si>
+  <si>
+    <t>Thông báo thay đổi mã vạch hoặc liên hệ MISA</t>
+  </si>
+  <si>
+    <t>Bấm nút lưu</t>
+  </si>
+  <si>
+    <t>Bấm nút hủy</t>
+  </si>
+  <si>
+    <t>SKU tự động thay đổi Lưu lại, đóng form, thông báo cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Sửa  thành công</t>
+  </si>
+  <si>
+    <t>Báo lỗi trùng sku, giữ form mở</t>
+  </si>
+  <si>
+    <t>Không click vào checkbox nào, bấm xóa</t>
+  </si>
+  <si>
+    <t>Click vào ô checkbox-&gt; bấm xóa -&gt; hủy không xóa nữa</t>
+  </si>
+  <si>
+    <t>Click vào 1 ô checkbox -&gt; bấm xóa -&gt; bấm đồng ý xóa</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -988,22 +1036,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,21 +1085,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,29 +1118,29 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1106,38 +1154,38 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1156,13 +1204,13 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1190,18 +1238,18 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1209,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -1223,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1259,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1270,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
@@ -1315,60 +1363,60 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,22 +1478,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,10 +1509,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -1494,10 +1542,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
@@ -1508,10 +1556,16 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1522,7 +1576,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1530,124 +1584,198 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1788,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,22 +1804,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,13 +1832,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,102 +1843,99 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,13 +1956,13 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1975,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,19 +1989,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,65 +2017,65 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,21 +2091,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/eShop-fncTest-VTT.xlsx
+++ b/eShop-fncTest-VTT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình chính" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
   <si>
     <t>UI</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Bấm xóa thành công</t>
-  </si>
-  <si>
-    <t>Không chọn hàng nào rồi bấm xóa</t>
-  </si>
-  <si>
-    <t>Hiện dialog xác nhận xóa hàng đầu tiên hay không</t>
   </si>
   <si>
     <t>Chuyển trang thành công</t>
@@ -348,9 +342,6 @@
     <t>Data Test</t>
   </si>
   <si>
-    <t>Thông tin của hàng hóa vừa click, SKU để trống</t>
-  </si>
-  <si>
     <t>Thông báo chọn hàng cần nhân bản</t>
   </si>
   <si>
@@ -366,30 +357,6 @@
     <t>Thông báo cần chọn hàng để sửa</t>
   </si>
   <si>
-    <t>Phím tắt nhân bản thành công</t>
-  </si>
-  <si>
-    <t>Ctrl D</t>
-  </si>
-  <si>
-    <t>Hàng thứ ba</t>
-  </si>
-  <si>
-    <t>Phím tắt sửa thành công</t>
-  </si>
-  <si>
-    <t>Ctrl E</t>
-  </si>
-  <si>
-    <t>Hàng thứ tư</t>
-  </si>
-  <si>
-    <t>Phím tắt thêm mới thành công</t>
-  </si>
-  <si>
-    <t>Ctrl O</t>
-  </si>
-  <si>
     <t>Hiện dialog xác nhận xóa các hàng vừa chọn</t>
   </si>
   <si>
@@ -400,12 +367,6 @@
   </si>
   <si>
     <t>Xóa hết những bản ghi đã chọn, về trang chủ</t>
-  </si>
-  <si>
-    <t>Bấm nút next/ Ctrl &gt;</t>
-  </si>
-  <si>
-    <t>Bấm previous/ Ctrl &lt;</t>
   </si>
   <si>
     <t>Hiển thị 25 bản ghi trên một trang</t>
@@ -572,9 +533,6 @@
     <t xml:space="preserve">Số căn phải, giá tiền có chấm </t>
   </si>
   <si>
-    <t>Nhập tối đa 20 ký tự</t>
-  </si>
-  <si>
     <t>Hiển thị giá tiền</t>
   </si>
   <si>
@@ -675,6 +633,18 @@
   </si>
   <si>
     <t>Click vào 1 ô checkbox -&gt; bấm xóa -&gt; bấm đồng ý xóa</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Bấm nút next</t>
+  </si>
+  <si>
+    <t>Bấm previous</t>
+  </si>
+  <si>
+    <t>đạt</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,22 +1006,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,21 +1055,18 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,337 +1085,341 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>103</v>
+      <c r="F14" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="2">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,22 +1449,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,18 +1472,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,262 +1491,328 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
+      <c r="F5" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
+      <c r="F6" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
+      <c r="F10" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1825,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,22 +1841,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,15 +1864,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,99 +1880,120 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,18 +2009,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,128 +2045,150 @@
     <col min="2" max="3" width="19.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="23.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
